--- a/artfynd/A 40687-2021.xlsx
+++ b/artfynd/A 40687-2021.xlsx
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368058</v>
+        <v>111368023</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550017.4513270573</v>
+        <v>550111.9895423861</v>
       </c>
       <c r="R3" t="n">
-        <v>7176175.765329147</v>
+        <v>7176363.847823337</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368022</v>
+        <v>111368058</v>
       </c>
       <c r="B4" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +916,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550112.0179235182</v>
+        <v>550017.4513270573</v>
       </c>
       <c r="R4" t="n">
-        <v>7176362.137194058</v>
+        <v>7176175.765329147</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368021</v>
+        <v>111368022</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550138.6953212153</v>
+        <v>550112.0179235182</v>
       </c>
       <c r="R5" t="n">
-        <v>7176380.546424469</v>
+        <v>7176362.137194058</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368023</v>
+        <v>111368021</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550111.9895423861</v>
+        <v>550138.6953212153</v>
       </c>
       <c r="R6" t="n">
-        <v>7176363.847823337</v>
+        <v>7176380.546424469</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 40687-2021.xlsx
+++ b/artfynd/A 40687-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368020</v>
+        <v>111368023</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550142.9842299672</v>
+        <v>550111.9895423861</v>
       </c>
       <c r="R2" t="n">
-        <v>7176380.189850669</v>
+        <v>7176363.847823337</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368023</v>
+        <v>111368021</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550111.9895423861</v>
+        <v>550138.6953212153</v>
       </c>
       <c r="R3" t="n">
-        <v>7176363.847823337</v>
+        <v>7176380.546424469</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368058</v>
+        <v>111368020</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550017.4513270573</v>
+        <v>550142.9842299672</v>
       </c>
       <c r="R4" t="n">
-        <v>7176175.765329147</v>
+        <v>7176380.189850669</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368022</v>
+        <v>111368058</v>
       </c>
       <c r="B5" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550112.0179235182</v>
+        <v>550017.4513270573</v>
       </c>
       <c r="R5" t="n">
-        <v>7176362.137194058</v>
+        <v>7176175.765329147</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368021</v>
+        <v>111368022</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550138.6953212153</v>
+        <v>550112.0179235182</v>
       </c>
       <c r="R6" t="n">
-        <v>7176380.546424469</v>
+        <v>7176362.137194058</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 40687-2021.xlsx
+++ b/artfynd/A 40687-2021.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368021</v>
+        <v>111368022</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>96368</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>221952</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550138.6953212153</v>
+        <v>550112.0179235182</v>
       </c>
       <c r="R3" t="n">
-        <v>7176380.546424469</v>
+        <v>7176362.137194058</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368020</v>
+        <v>111368058</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550142.9842299672</v>
+        <v>550017.4513270573</v>
       </c>
       <c r="R4" t="n">
-        <v>7176380.189850669</v>
+        <v>7176175.765329147</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368058</v>
+        <v>111368020</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1032,21 +1032,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550017.4513270573</v>
+        <v>550142.9842299672</v>
       </c>
       <c r="R5" t="n">
-        <v>7176175.765329147</v>
+        <v>7176380.189850669</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368022</v>
+        <v>111368021</v>
       </c>
       <c r="B6" t="n">
-        <v>96368</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221952</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550112.0179235182</v>
+        <v>550138.6953212153</v>
       </c>
       <c r="R6" t="n">
-        <v>7176362.137194058</v>
+        <v>7176380.546424469</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 40687-2021.xlsx
+++ b/artfynd/A 40687-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111368023</v>
+        <v>111368021</v>
       </c>
       <c r="B2" t="n">
         <v>77515</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>550111.9895423861</v>
+        <v>550138.6953212153</v>
       </c>
       <c r="R2" t="n">
-        <v>7176363.847823337</v>
+        <v>7176380.546424469</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111368022</v>
+        <v>111368020</v>
       </c>
       <c r="B3" t="n">
-        <v>96368</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>221952</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550112.0179235182</v>
+        <v>550142.9842299672</v>
       </c>
       <c r="R3" t="n">
-        <v>7176362.137194058</v>
+        <v>7176380.189850669</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>12:44</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111368058</v>
+        <v>111368023</v>
       </c>
       <c r="B4" t="n">
         <v>77515</v>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>550017.4513270573</v>
+        <v>550111.9895423861</v>
       </c>
       <c r="R4" t="n">
-        <v>7176175.765329147</v>
+        <v>7176363.847823337</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -979,7 +979,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>11:21</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1016,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111368020</v>
+        <v>111368022</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>96368</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>221952</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>550142.9842299672</v>
+        <v>550112.0179235182</v>
       </c>
       <c r="R5" t="n">
-        <v>7176380.189850669</v>
+        <v>7176362.137194058</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>12:44</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1128,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111368021</v>
+        <v>111368058</v>
       </c>
       <c r="B6" t="n">
         <v>77515</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>550138.6953212153</v>
+        <v>550017.4513270573</v>
       </c>
       <c r="R6" t="n">
-        <v>7176380.546424469</v>
+        <v>7176175.765329147</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>11:21</t>
         </is>
       </c>
       <c r="AD6" t="b">
